--- a/ImportExcel/test_Yamada_Jiro.xlsx
+++ b/ImportExcel/test_Yamada_Jiro.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E66720F-A172-4167-95B8-BFCA56844CF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B17E767-9D10-4A82-8328-48BFB786B748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="1875" windowWidth="18690" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,6 +781,81 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -790,86 +865,11 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AZ13" sqref="AZ13"/>
     </sheetView>
   </sheetViews>
@@ -1181,16 +1181,16 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
     </row>
     <row r="2" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1209,14 +1209,14 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
     </row>
     <row r="3" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1225,20 +1225,20 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -1248,15 +1248,15 @@
     </row>
     <row r="4" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1299,16 +1299,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="34"/>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="I6" s="26" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="I6" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="26"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="10" t="s">
         <v>40</v>
       </c>
@@ -1317,17 +1317,17 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="27" t="s">
+      <c r="R6" s="35"/>
+      <c r="S6" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1376,640 +1376,640 @@
     </row>
     <row r="9" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="31" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="31" t="s">
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="35"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="28"/>
     </row>
     <row r="10" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="22" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="22" t="s">
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="25"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="21"/>
     </row>
     <row r="11" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="22" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="22" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="25"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="21"/>
     </row>
     <row r="12" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="22" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="22" t="s">
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="25"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="21"/>
     </row>
     <row r="13" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="22" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="25"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="21"/>
     </row>
     <row r="14" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="22" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="22" t="s">
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="25"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="21"/>
     </row>
     <row r="15" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="22" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="22" t="s">
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="25"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="21"/>
     </row>
     <row r="16" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="22" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="25"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="21"/>
     </row>
     <row r="17" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="25"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="21"/>
     </row>
     <row r="18" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="25"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="21"/>
     </row>
     <row r="19" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="25"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="21"/>
     </row>
     <row r="20" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="25"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="21"/>
     </row>
     <row r="21" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="25"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="21"/>
     </row>
     <row r="22" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="25"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="21"/>
     </row>
     <row r="23" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="25"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="21"/>
     </row>
     <row r="24" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="25"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="21"/>
     </row>
     <row r="25" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="25"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="21"/>
     </row>
     <row r="26" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="25"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="21"/>
     </row>
     <row r="27" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="25"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="21"/>
     </row>
     <row r="28" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="41"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="23"/>
     </row>
     <row r="29" spans="2:25" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="17" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="17" t="s">
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="37"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="20"/>
     </row>
     <row r="30" spans="2:25" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="17" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="38" t="s">
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="37"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="20"/>
     </row>
     <row r="31" spans="2:25" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2022,19 +2022,109 @@
     <row r="39" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="Q1:X2"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="G3:R3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:Y15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
     <mergeCell ref="N30:Q30"/>
     <mergeCell ref="R30:U30"/>
     <mergeCell ref="V30:Y30"/>
@@ -2059,109 +2149,19 @@
     <mergeCell ref="V19:Y19"/>
     <mergeCell ref="N18:Q18"/>
     <mergeCell ref="V16:Y16"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="V27:Y27"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:Y15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="G3:R3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="Q1:X2"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="R20:U20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
